--- a/result/test_070_data_transfer_speed.xlsx
+++ b/result/test_070_data_transfer_speed.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="poly orth" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -500,37 +500,37 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7052.22790493065</v>
+        <v>6.560259158476645</v>
       </c>
       <c r="D2" t="n">
-        <v>7725.808723548772</v>
+        <v>6.791211338554345</v>
       </c>
       <c r="E2" t="n">
-        <v>7813.435383579836</v>
+        <v>6.858691195257806</v>
       </c>
       <c r="F2" t="n">
-        <v>7367.864106662919</v>
+        <v>6.900069752444626</v>
       </c>
       <c r="G2" t="n">
-        <v>6915.201799844574</v>
+        <v>6.913383235743388</v>
       </c>
       <c r="H2" t="n">
-        <v>6890.520872928496</v>
+        <v>6.895452328603676</v>
       </c>
       <c r="I2" t="n">
-        <v>6906.901013143152</v>
+        <v>6.897262281516112</v>
       </c>
       <c r="J2" t="n">
-        <v>6905.167990095655</v>
+        <v>6.902150091746055</v>
       </c>
       <c r="K2" t="n">
-        <v>6917.673651391588</v>
+        <v>6.923668741979768</v>
       </c>
       <c r="L2" t="n">
-        <v>6921.067199066119</v>
+        <v>6.870956983815517</v>
       </c>
       <c r="M2" t="n">
-        <v>6158.638309045388</v>
+        <v>3.649745635105142</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +545,37 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1841.940265582213</v>
+        <v>1.686507018289239</v>
       </c>
       <c r="D3" t="n">
-        <v>1837.100811849332</v>
+        <v>1.83772015270627</v>
       </c>
       <c r="E3" t="n">
-        <v>1841.465898621621</v>
+        <v>1.835510704079061</v>
       </c>
       <c r="F3" t="n">
-        <v>1840.626627820587</v>
+        <v>1.836594157325904</v>
       </c>
       <c r="G3" t="n">
-        <v>1841.232228008275</v>
+        <v>1.838640572012929</v>
       </c>
       <c r="H3" t="n">
-        <v>1841.486909972094</v>
+        <v>1.692747410573417</v>
       </c>
       <c r="I3" t="n">
-        <v>1840.362799758604</v>
+        <v>1.705924462996112</v>
       </c>
       <c r="J3" t="n">
-        <v>1842.61224997845</v>
+        <v>1.527664706725629</v>
       </c>
       <c r="K3" t="n">
-        <v>1843.586546672635</v>
+        <v>1.528417383667726</v>
       </c>
       <c r="L3" t="n">
-        <v>1844.614004888805</v>
+        <v>1.530032235323002</v>
       </c>
       <c r="M3" t="n">
-        <v>1846.31457825173</v>
+        <v>1.531818397482332</v>
       </c>
     </row>
     <row r="4">
@@ -590,37 +590,37 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1622648.353130539</v>
+        <v>1606.332452842254</v>
       </c>
       <c r="D4" t="n">
-        <v>295995.9696152903</v>
+        <v>411.1223034510925</v>
       </c>
       <c r="E4" t="n">
-        <v>1415425.552333246</v>
+        <v>1222.383679417122</v>
       </c>
       <c r="F4" t="n">
-        <v>1148495.071193866</v>
+        <v>1034.6725871107</v>
       </c>
       <c r="G4" t="n">
-        <v>1021703.080436438</v>
+        <v>1319.525426839259</v>
       </c>
       <c r="H4" t="n">
-        <v>1135552.985703432</v>
+        <v>1099.152433733329</v>
       </c>
       <c r="I4" t="n">
-        <v>1664780.532578782</v>
+        <v>1591.141146223095</v>
       </c>
       <c r="J4" t="n">
-        <v>2014235.737206803</v>
+        <v>1893.089776415686</v>
       </c>
       <c r="K4" t="n">
-        <v>2458560.375146542</v>
+        <v>2316.335220212619</v>
       </c>
       <c r="L4" t="n">
-        <v>2921766.171560161</v>
+        <v>2794.278232622161</v>
       </c>
       <c r="M4" t="n">
-        <v>2149968.055530835</v>
+        <v>2381.623722397476</v>
       </c>
     </row>
   </sheetData>

--- a/result/test_070_data_transfer_speed.xlsx
+++ b/result/test_070_data_transfer_speed.xlsx
@@ -500,37 +500,37 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6.560259158476645</v>
+        <v>3.2788593198822</v>
       </c>
       <c r="D2" t="n">
-        <v>6.791211338554345</v>
+        <v>3.527894524103803</v>
       </c>
       <c r="E2" t="n">
-        <v>6.858691195257806</v>
+        <v>3.479638004709335</v>
       </c>
       <c r="F2" t="n">
-        <v>6.900069752444626</v>
+        <v>3.478240390025621</v>
       </c>
       <c r="G2" t="n">
-        <v>6.913383235743388</v>
+        <v>3.496277127445884</v>
       </c>
       <c r="H2" t="n">
-        <v>6.895452328603676</v>
+        <v>3.49894232237411</v>
       </c>
       <c r="I2" t="n">
-        <v>6.897262281516112</v>
+        <v>3.435369486599917</v>
       </c>
       <c r="J2" t="n">
-        <v>6.902150091746055</v>
+        <v>3.353853225137713</v>
       </c>
       <c r="K2" t="n">
-        <v>6.923668741979768</v>
+        <v>3.492563331950371</v>
       </c>
       <c r="L2" t="n">
-        <v>6.870956983815517</v>
+        <v>3.49657990251639</v>
       </c>
       <c r="M2" t="n">
-        <v>3.649745635105142</v>
+        <v>1.529234883958851</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +545,37 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.686507018289239</v>
+        <v>1.827275296461075</v>
       </c>
       <c r="D3" t="n">
-        <v>1.83772015270627</v>
+        <v>1.830312184741655</v>
       </c>
       <c r="E3" t="n">
-        <v>1.835510704079061</v>
+        <v>1.832813724623338</v>
       </c>
       <c r="F3" t="n">
-        <v>1.836594157325904</v>
+        <v>1.832744274454756</v>
       </c>
       <c r="G3" t="n">
-        <v>1.838640572012929</v>
+        <v>1.829733162804975</v>
       </c>
       <c r="H3" t="n">
-        <v>1.692747410573417</v>
+        <v>1.825468804949671</v>
       </c>
       <c r="I3" t="n">
-        <v>1.705924462996112</v>
+        <v>1.827826807175911</v>
       </c>
       <c r="J3" t="n">
-        <v>1.527664706725629</v>
+        <v>1.830039085570625</v>
       </c>
       <c r="K3" t="n">
-        <v>1.528417383667726</v>
+        <v>1.829372311317606</v>
       </c>
       <c r="L3" t="n">
-        <v>1.530032235323002</v>
+        <v>1.818968405190168</v>
       </c>
       <c r="M3" t="n">
-        <v>1.531818397482332</v>
+        <v>1.815474203782043</v>
       </c>
     </row>
     <row r="4">
@@ -590,37 +590,37 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1606.332452842254</v>
+        <v>1613.456899985173</v>
       </c>
       <c r="D4" t="n">
-        <v>411.1223034510925</v>
+        <v>294.2367496468066</v>
       </c>
       <c r="E4" t="n">
-        <v>1222.383679417122</v>
+        <v>1412.260718137577</v>
       </c>
       <c r="F4" t="n">
-        <v>1034.6725871107</v>
+        <v>1086.325822325822</v>
       </c>
       <c r="G4" t="n">
-        <v>1319.525426839259</v>
+        <v>1024.823578518707</v>
       </c>
       <c r="H4" t="n">
-        <v>1099.152433733329</v>
+        <v>1132.658561587214</v>
       </c>
       <c r="I4" t="n">
-        <v>1591.141146223095</v>
+        <v>1620.742375849057</v>
       </c>
       <c r="J4" t="n">
-        <v>1893.089776415686</v>
+        <v>1950.419082884823</v>
       </c>
       <c r="K4" t="n">
-        <v>2316.335220212619</v>
+        <v>2436.689444827711</v>
       </c>
       <c r="L4" t="n">
-        <v>2794.278232622161</v>
+        <v>2736.644831490968</v>
       </c>
       <c r="M4" t="n">
-        <v>2381.623722397476</v>
+        <v>2439.767834583049</v>
       </c>
     </row>
   </sheetData>
